--- a/report/reliability/by-unidade/Faculdade de Letras - FALE.xlsx
+++ b/report/reliability/by-unidade/Faculdade de Letras - FALE.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -1852,6 +1855,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color rgb="000000"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="22.0"/>
       <color rgb="000000"/>
       <b val="true"/>
@@ -2232,11 +2240,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3667,7 +3670,6 @@
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="277" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3695,13 +3697,14 @@
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="290" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="293" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3710,7 +3713,6 @@
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="300" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3726,13 +3728,14 @@
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="307" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3740,7 +3743,6 @@
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="316" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3756,20 +3758,20 @@
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="323" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="331" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3785,13 +3787,14 @@
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4134,31 +4137,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7434640537925314</v>
+        <v>0.7054615730388785</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7685932514541091</v>
+        <v>0.7342962921832328</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9015595263657551</v>
+        <v>0.9003867868185673</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.21678150812167735</v>
+        <v>0.17531479604659275</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.32139514635498</v>
+        <v>2.7635906860946533</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.030775336263200496</v>
+        <v>0.03374685669108864</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.490625</v>
+        <v>1.9009615384615384</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.734077875088617</v>
+        <v>0.6143185916672461</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2145924512787814</v>
+        <v>0.1458828477298108</v>
       </c>
     </row>
     <row r="7">
@@ -4208,28 +4211,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7160445727038005</v>
+        <v>0.7048222550387543</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7354476728630696</v>
+        <v>0.7204455180354641</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8772017769069527</v>
+        <v>0.894744439885686</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.20173994735927886</v>
+        <v>0.17679213798565524</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>2.779970529166455</v>
+        <v>2.5771202556747386</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.034190089103932425</v>
+        <v>0.03445367082445069</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.06152124485694719</v>
+        <v>0.0938033315479244</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.19966848617455937</v>
+        <v>0.18701790326521778</v>
       </c>
     </row>
     <row r="12">
@@ -4237,28 +4240,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7147074829608647</v>
+        <v>0.6784350962513285</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7373446092819587</v>
+        <v>0.6982808191443945</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8777977935291518</v>
+        <v>0.8811218762763693</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.20331825423084143</v>
+        <v>0.16167983569383937</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>2.80727004028443</v>
+        <v>2.3143401661247798</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.03429655199694755</v>
+        <v>0.036833099709716585</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06203109476757343</v>
+        <v>0.09292368968223257</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.211761688939364</v>
+        <v>0.13792008572050063</v>
       </c>
     </row>
     <row r="13">
@@ -4266,28 +4269,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7204993836886747</v>
+        <v>0.6801307137896186</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7409840702393878</v>
+        <v>0.7021689776152648</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8803242430412282</v>
+        <v>0.8858916719487467</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.2063930897811325</v>
+        <v>0.164206217050005</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>2.8607664050787167</v>
+        <v>2.3576085929296173</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.033686776322108265</v>
+        <v>0.03655512592690125</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.062188751145944965</v>
+        <v>0.09453168943392692</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.21742321361819883</v>
+        <v>0.1458828477298108</v>
       </c>
     </row>
     <row r="14">
@@ -4295,28 +4298,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.712905917892243</v>
+        <v>0.6883545113602844</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7367757233021417</v>
+        <v>0.7073954750017084</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8781651980573</v>
+        <v>0.8834032656924093</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.20284319374253043</v>
+        <v>0.16768291105768782</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>2.799041686218968</v>
+        <v>2.4175821443835797</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.03455261093499188</v>
+        <v>0.036214776686438965</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.06181172831897063</v>
+        <v>0.08123162976113918</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.211761688939364</v>
+        <v>0.13792008572050063</v>
       </c>
     </row>
     <row r="15">
@@ -4324,28 +4327,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7190666779787601</v>
+        <v>0.6613817253125953</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7534232774234053</v>
+        <v>0.6998799779296383</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8648301876730377</v>
+        <v>0.8778687579362457</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.21739004045688495</v>
+        <v>0.16271282732444878</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.0555328562669475</v>
+        <v>2.3320002880899264</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.03394218009732754</v>
+        <v>0.039145463484035574</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05806705735528001</v>
+        <v>0.08166048977828867</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.2208832659343495</v>
+        <v>0.14147439344435467</v>
       </c>
     </row>
     <row r="16">
@@ -4353,28 +4356,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7186826789163651</v>
+        <v>0.6609815005395394</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.751923669341685</v>
+        <v>0.6990671001515371</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8649589134460983</v>
+        <v>0.8799611372219209</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.21602263731049315</v>
+        <v>0.16218668763999877</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.031017378184853</v>
+        <v>2.322999912949226</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.034009340157960644</v>
+        <v>0.03926429039487447</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.05854698344688074</v>
+        <v>0.0823843628659554</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.21742321361819883</v>
+        <v>0.13792008572050063</v>
       </c>
     </row>
     <row r="17">
@@ -4382,28 +4385,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.7623037611893071</v>
+        <v>0.710255607095408</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.789433381554031</v>
+        <v>0.759868405086325</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.8909162298993729</v>
+        <v>0.9041105239134953</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2541913182763308</v>
+        <v>0.2086720722718731</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>3.7490908453592233</v>
+        <v>3.1643832847547215</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.028161560976079934</v>
+        <v>0.03368810254982204</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.05208477182891245</v>
+        <v>0.07935890279126642</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.23186755191099767</v>
+        <v>0.18701790326521778</v>
       </c>
     </row>
     <row r="18">
@@ -4411,28 +4414,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.7724065275791905</v>
+        <v>0.7209305423106943</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.7877427452247042</v>
+        <v>0.7442110304225269</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.8903613619643465</v>
+        <v>0.8903164883346976</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.252273640781084</v>
+        <v>0.19514256331656532</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>3.711264173555059</v>
+        <v>2.9094727253167223</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.026630233154933892</v>
+        <v>0.030725357817144684</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.053441918273741534</v>
+        <v>0.08406055742025838</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.23186755191099767</v>
+        <v>0.18701790326521778</v>
       </c>
     </row>
     <row r="19">
@@ -4440,28 +4443,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7318213776102002</v>
+        <v>0.7322116222959103</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.760299812528321</v>
+        <v>0.7434724293121494</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9046931497861783</v>
+        <v>0.8988800013014521</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.22381495229280887</v>
+        <v>0.19453445803353261</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.1718782556987004</v>
+        <v>2.8982164658504734</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.032671818721702675</v>
+        <v>0.028927482102369763</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06822500893990352</v>
+        <v>0.08741368017751944</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.21742321361819883</v>
+        <v>0.18701790326521778</v>
       </c>
     </row>
     <row r="20">
@@ -4469,28 +4472,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.714578636620648</v>
+        <v>0.6903773152920908</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7450194513465989</v>
+        <v>0.7274475368571114</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.8970816375330951</v>
+        <v>0.9038520969826248</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.20987613382558234</v>
+        <v>0.1819493520634642</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>2.9218677867044467</v>
+        <v>2.6690183917939483</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.034637282402137905</v>
+        <v>0.03593667796568911</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06688198598459988</v>
+        <v>0.09934932904780563</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.19033275830809882</v>
+        <v>0.1458828477298108</v>
       </c>
     </row>
     <row r="21">
@@ -4498,28 +4501,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7136741217527952</v>
+        <v>0.6719559853447258</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.74185012189606</v>
+        <v>0.7122567129149534</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8717823491996355</v>
+        <v>0.8980714758256245</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.20713398698428842</v>
+        <v>0.17100278257330337</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>2.8737186604340197</v>
+        <v>2.4753199983582452</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.03457775168616564</v>
+        <v>0.037965863161294966</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.061201562927272565</v>
+        <v>0.09880225266767685</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.19033275830809882</v>
+        <v>0.13792008572050063</v>
       </c>
     </row>
     <row r="22">
@@ -4527,33 +4530,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7120456243721425</v>
+        <v>0.6675707844522997</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7409697891364911</v>
+        <v>0.7059989147409462</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.8720672734511299</v>
+        <v>0.8721297135577974</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.20638090241887264</v>
+        <v>0.16674466796603205</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>2.8605535495893606</v>
+        <v>2.401347988626871</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.034793305909886746</v>
+        <v>0.038220029641869754</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.06144495383589278</v>
+        <v>0.09350654371211921</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.19033275830809882</v>
+        <v>0.13588470602775485</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.6650308862807973</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7045611600933414</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.8723898978847971</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.16578583562930027</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>2.3847953109887023</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.038575804078916975</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.09369562860626275</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.13588470602775485</v>
       </c>
     </row>
     <row r="24">
@@ -4562,458 +4589,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>160.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.6006795186906317</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.66089453506986</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.6434840097169204</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.5178987771247527</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.475</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.027606365670871</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.5935156583867425</v>
+        <v>0.33003880423052995</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.6472735016790876</v>
+        <v>0.47327268962118524</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.6289817052445318</v>
+        <v>0.4306992574959178</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.4902213387150075</v>
+        <v>0.30685769092552484</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9125</v>
+        <v>0.95625</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.2407519529724833</v>
+        <v>0.2051805463580151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.5600879983307551</v>
+        <v>0.5355783932348569</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.6207371934007215</v>
+        <v>0.6302936385683275</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5965805564113013</v>
+        <v>0.6155292829228414</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.47479564990803597</v>
+        <v>0.4340758900787681</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.5</v>
+        <v>3.475</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>0.9968503858773891</v>
+        <v>1.027606365670871</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.603993983430095</v>
+        <v>0.5210877087838407</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.6513733474635229</v>
+        <v>0.6040438461616252</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.6313971269451121</v>
+        <v>0.5803005280503024</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.49051142335490067</v>
+        <v>0.39386245502782546</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.775</v>
+        <v>3.9125</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3687895768380096</v>
+        <v>1.2407519529724833</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.5787555114403091</v>
+        <v>0.5781956051751537</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.525831801394919</v>
+        <v>0.5679200457145653</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.5421486773579347</v>
+        <v>0.5846352935058379</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.4324217318280962</v>
+        <v>0.5374387875383682</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.05625</v>
+        <v>0.3125</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>1.6530774616876314</v>
+        <v>0.4649677070006681</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.5906066393659781</v>
+        <v>0.6419920256414222</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.5376327028870415</v>
+        <v>0.6195605733502906</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.5543779641471203</v>
+        <v>0.6447316390507108</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.43662862171426475</v>
+        <v>0.4934667682231169</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.1</v>
+        <v>1.05625</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>1.7526260620016887</v>
+        <v>1.6530774616876314</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.24048585182763887</v>
+        <v>0.6500175159725177</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.2082310590845981</v>
+        <v>0.6250273083940855</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.15912138061495604</v>
+        <v>0.6474929123575786</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.07654823334457211</v>
+        <v>0.49295901147949445</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.46875</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.461978821827354</v>
+        <v>1.7526260620016887</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.2673575997275233</v>
+        <v>0.09482335372887535</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.22478091365732028</v>
+        <v>0.14203146394074329</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.1762971512922266</v>
+        <v>0.08742424036709112</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>0.06798052603083221</v>
+        <v>0.047939574673012735</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.51875</v>
+        <v>0.83125</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.7767607972987276</v>
+        <v>0.3757068809289477</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.4945810995161131</v>
+        <v>0.2836447240198948</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.4703838145511153</v>
+        <v>0.2826067577595921</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.3753310645097442</v>
+        <v>0.256073665791132</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.33949360516330424</v>
+        <v>0.10431581634449258</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.54375</v>
+        <v>2.46875</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5934096781793825</v>
+        <v>1.461978821827354</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.5929223121518638</v>
+        <v>0.3128650212099591</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.5906779824286431</v>
+        <v>0.2889251377627023</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5180591855341244</v>
+        <v>0.24454694862996018</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.4726560593062761</v>
+        <v>0.094733897747632</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.275</v>
+        <v>2.51875</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.4184321222866434</v>
+        <v>1.7767607972987276</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.59867790709649</v>
+        <v>0.4967179759083904</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6143431354864165</v>
+        <v>0.4196878265881275</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6095489420641895</v>
+        <v>0.32648227713727984</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.48546980120962546</v>
+        <v>0.32395980059701</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.20625</v>
+        <v>1.54375</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.3556166644300678</v>
+        <v>1.5934096781793825</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>160.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.610660139814974</v>
+        <v>0.5783345322563163</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.6208423722295529</v>
+        <v>0.5334256737983257</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6158691075483151</v>
+        <v>0.45677160991611854</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5021950033924957</v>
+        <v>0.4408853766446053</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.275</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.4184321222866434</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>160.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6015529018153954</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.577668647730995</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5714568339957518</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.47552143753808185</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.20625</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.3556166644300678</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>160.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6164017756883451</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.5876311776280027</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5812765072030607</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.4962451648091969</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.05625</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.3281986429823387</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.04375</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.01875</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.00625</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.35625</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.5</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.075</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.04375</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.03125</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.28125</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.2125</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.43125</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.025</v>
+        <v>0.04375</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.0375</v>
+        <v>0.95625</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.025</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.31875</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5125</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.08125</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5021,25 +5027,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.025</v>
+        <v>0.04375</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.05625</v>
+        <v>0.01875</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05</v>
+        <v>0.00625</v>
       </c>
       <c r="E46" t="n" s="112">
-        <v>0.33125</v>
+        <v>0.35625</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.0625</v>
+        <v>0.5</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.475</v>
+        <v>0.075</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5047,25 +5053,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.6875</v>
+        <v>0.04375</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.01875</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
-        <v>0.01875</v>
+        <v>0.03125</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.11875</v>
+        <v>0.28125</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.1375</v>
+        <v>0.2125</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.01875</v>
+        <v>0.43125</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5073,25 +5079,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.6875</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.01875</v>
+        <v>0.3125</v>
       </c>
       <c r="D48" t="n" s="111">
-        <v>0.03125</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.1</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.09375</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.06875</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5099,25 +5105,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.16875</v>
+        <v>0.6875</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.14375</v>
+        <v>0.01875</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.0125</v>
+        <v>0.01875</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.4125</v>
+        <v>0.11875</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.25</v>
+        <v>0.1375</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.0125</v>
+        <v>0.01875</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5125,25 +5131,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.16875</v>
+        <v>0.6875</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.18125</v>
+        <v>0.01875</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.15625</v>
+        <v>0.03125</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.1625</v>
+        <v>0.1</v>
       </c>
       <c r="F50" t="n" s="113">
-        <v>0.11875</v>
+        <v>0.09375</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.2125</v>
+        <v>0.06875</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5151,22 +5157,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.4375</v>
+        <v>0.16875</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.13125</v>
+        <v>0.83125</v>
       </c>
       <c r="D51" t="n" s="111">
-        <v>0.03125</v>
+        <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.25</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.15</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5177,25 +5183,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.20625</v>
+        <v>0.16875</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.1125</v>
+        <v>0.14375</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05</v>
+        <v>0.0125</v>
       </c>
       <c r="E52" t="n" s="112">
-        <v>0.4625</v>
+        <v>0.4125</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.16875</v>
+        <v>0.25</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.0125</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5203,25 +5209,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.175</v>
+        <v>0.16875</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.1125</v>
+        <v>0.18125</v>
       </c>
       <c r="D53" t="n" s="111">
-        <v>0.2375</v>
+        <v>0.15625</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.28125</v>
+        <v>0.1625</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.19375</v>
+        <v>0.11875</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.2125</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5229,27 +5235,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B54" t="n" s="109">
-        <v>0.19375</v>
+        <v>0.4375</v>
       </c>
       <c r="C54" t="n" s="110">
-        <v>0.1125</v>
+        <v>0.13125</v>
       </c>
       <c r="D54" t="n" s="111">
-        <v>0.29375</v>
+        <v>0.03125</v>
       </c>
       <c r="E54" t="n" s="112">
-        <v>0.24375</v>
+        <v>0.25</v>
       </c>
       <c r="F54" t="n" s="113">
-        <v>0.15625</v>
+        <v>0.15</v>
       </c>
       <c r="G54" t="n" s="114">
         <v>0.0</v>
       </c>
       <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.20625</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.1125</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.4625</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.16875</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
+        <v>29</v>
+      </c>
+      <c r="B56" t="n" s="109">
+        <v>0.175</v>
+      </c>
+      <c r="C56" t="n" s="110">
+        <v>0.1125</v>
+      </c>
+      <c r="D56" t="n" s="111">
+        <v>0.2375</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.28125</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.19375</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.19375</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.1125</v>
+      </c>
+      <c r="D57" t="n" s="111">
+        <v>0.29375</v>
+      </c>
+      <c r="E57" t="n" s="112">
+        <v>0.24375</v>
+      </c>
+      <c r="F57" t="n" s="113">
+        <v>0.15625</v>
+      </c>
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5280,7 +5364,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5329,31 +5413,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.8519499953237522</v>
+        <v>0.8805004651413626</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.8585791125902618</v>
+        <v>0.9823345989867297</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8779510702940215</v>
+        <v>0.9752343150955279</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.6028235769703031</v>
+        <v>0.9488122994736784</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>6.07109125332175</v>
+        <v>55.607829012700975</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.019244978653748454</v>
+        <v>0.0033490798122539833</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.665625</v>
+        <v>0.8229166666666666</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9724537385320217</v>
+        <v>1.2726889140625206</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.5550174686864253</v>
+        <v>0.9507061139517422</v>
       </c>
     </row>
     <row r="7">
@@ -5400,118 +5484,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.810528905289053</v>
+        <v>0.9797170544644245</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.8186421857948898</v>
+        <v>0.9805711087187778</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.783476847285921</v>
+        <v>0.9618827925176737</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.6007432282478035</v>
+        <v>0.9618827925176736</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>4.51396147104547</v>
+        <v>50.469740888739814</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.025284557312198933</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.024286636218943693</v>
-      </c>
+        <v>0.003136036440919079</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.5697426344020584</v>
+        <v>0.9618827925176736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.8099557522123891</v>
+        <v>0.6328658755843222</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.819587057908261</v>
+        <v>0.965792550229545</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.7785412233604193</v>
+        <v>0.9338479919516196</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.6022718023180677</v>
+        <v>0.9338479919516196</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>4.542839601227201</v>
+        <v>28.233398184032392</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.025002452374882557</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.02151163130366022</v>
-      </c>
+        <v>0.011611024936347561</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.5402923029707923</v>
+        <v>0.9338479919516196</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.8148993267021258</v>
+        <v>0.6627510049109173</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.8271857263514321</v>
+        <v>0.9747302345054949</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7892341067155102</v>
+        <v>0.9507061139517421</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.614720702836558</v>
+        <v>0.9507061139517421</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>4.786559054916852</v>
+        <v>38.57298298701857</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.025799594577757174</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.021241200683661234</v>
-      </c>
+        <v>0.009924574584099998</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.5697426344020584</v>
+        <v>0.9507061139517422</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.8118732289636045</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.8141656811959357</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7790056266446223</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.5935585744787831</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>4.381137383210451</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.025578833544493636</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.026921604158118093</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.5402923029707923</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5520,283 +5574,226 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>160.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.962069322863825</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.978356201447816</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9594003322945058</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9511300599505816</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.3125</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4649677070006681</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>160.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.8254995205563511</v>
+        <v>0.9902775958584823</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.8397866830686245</v>
+        <v>0.9878647840512829</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7871548279831369</v>
+        <v>0.982032372668568</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.7051682090936694</v>
+        <v>0.9702340340469982</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.475</v>
+        <v>1.05625</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.027606365670871</v>
+        <v>1.6530774616876314</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>160.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.8434858472324556</v>
+        <v>0.9892184295444667</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.8384185044592776</v>
+        <v>0.982147003209582</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.7885439483576684</v>
+        <v>0.9701972206069905</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.6986384929408568</v>
+        <v>0.9639039729623012</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9125</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.2407519529724833</v>
+        <v>1.7526260620016887</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>160.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.8174750174121044</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.8272758848567202</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.7694426644165895</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.6978694083169683</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.5</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>0.9968503858773891</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>160.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.8621262267802059</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.8462174408536487</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7953679982302772</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.7095653515143142</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.775</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3687895768380096</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.6875</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.3125</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.6875</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.01875</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.01875</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.11875</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.1375</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.01875</v>
+      </c>
+      <c r="H26" t="n" s="230">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.04375</v>
+        <v>0.6875</v>
       </c>
       <c r="C27" t="n" s="225">
         <v>0.01875</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.00625</v>
+        <v>0.03125</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.35625</v>
+        <v>0.1</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.5</v>
+        <v>0.09375</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.075</v>
+        <v>0.06875</v>
       </c>
       <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.04375</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.03125</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.28125</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.2125</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.43125</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.025</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.0375</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.025</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.31875</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5125</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.08125</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.025</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.05625</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.33125</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.0625</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.475</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5827,7 +5824,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="232">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5876,31 +5873,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="261">
-        <v>0.8745968348401545</v>
+        <v>0.7748698604036512</v>
       </c>
       <c r="B6" t="n" s="262">
-        <v>0.883905736751023</v>
+        <v>0.891220229057679</v>
       </c>
       <c r="C6" t="n" s="263">
-        <v>0.7919633366611454</v>
+        <v>0.8585749821913643</v>
       </c>
       <c r="D6" t="n" s="264">
-        <v>0.7919633366611456</v>
+        <v>0.7319726045415179</v>
       </c>
       <c r="E6" t="n" s="265">
-        <v>7.613690048192894</v>
+        <v>8.19288569315186</v>
       </c>
       <c r="F6" t="n" s="266">
-        <v>0.01887693941796841</v>
+        <v>0.014765342038369652</v>
       </c>
       <c r="G6" t="n" s="267">
-        <v>2.49375</v>
+        <v>1.9395833333333334</v>
       </c>
       <c r="H6" t="n" s="268">
-        <v>1.5336759598055694</v>
+        <v>1.117719473036643</v>
       </c>
       <c r="I6" t="n" s="269">
-        <v>0.7919633366611455</v>
+        <v>0.7632266425902297</v>
       </c>
     </row>
     <row r="7">
@@ -5950,22 +5947,24 @@
         <v>24</v>
       </c>
       <c r="B11" t="n" s="288">
-        <v>0.7919633366611455</v>
+        <v>0.8745968348401545</v>
       </c>
       <c r="C11" t="n" s="289">
-        <v>0.7919633366611455</v>
+        <v>0.883905736751023</v>
       </c>
       <c r="D11" t="n" s="290">
-        <v>0.6272059266154546</v>
+        <v>0.7919633366611454</v>
       </c>
       <c r="E11" t="n" s="291">
-        <v>0.7919633366611455</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.7919633366611455</v>
-      </c>
+        <v>0.7919633366611456</v>
+      </c>
+      <c r="F11" t="n" s="292">
+        <v>7.613690048192894</v>
+      </c>
+      <c r="G11" t="n" s="293">
+        <v>0.01887693941796841</v>
+      </c>
+      <c r="H11" s="294"/>
       <c r="I11" t="n" s="295">
         <v>0.7919633366611455</v>
       </c>
@@ -5975,25 +5974,53 @@
         <v>25</v>
       </c>
       <c r="B12" t="n" s="288">
-        <v>0.6272059266154546</v>
+        <v>0.41190944881889746</v>
       </c>
       <c r="C12" t="n" s="289">
-        <v>0.7919633366611455</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.6272059266154546</v>
-      </c>
+        <v>0.7810287860667169</v>
+      </c>
+      <c r="D12" t="n" s="290">
+        <v>0.6407278343731782</v>
+      </c>
+      <c r="E12" t="n" s="291">
+        <v>0.6407278343731784</v>
+      </c>
+      <c r="F12" t="n" s="292">
+        <v>3.5668103219479943</v>
+      </c>
+      <c r="G12" t="n" s="293">
+        <v>0.029924047246605037</v>
+      </c>
+      <c r="H12" s="294"/>
       <c r="I12" t="n" s="295">
-        <v>0.7919633366611455</v>
+        <v>0.6407278343731784</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="283">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="288">
+        <v>0.5379842615012107</v>
+      </c>
+      <c r="C13" t="n" s="289">
+        <v>0.8657158690263755</v>
+      </c>
+      <c r="D13" t="n" s="290">
+        <v>0.7632266425902297</v>
+      </c>
+      <c r="E13" t="n" s="291">
+        <v>0.7632266425902297</v>
+      </c>
+      <c r="F13" t="n" s="292">
+        <v>6.446896314177411</v>
+      </c>
+      <c r="G13" t="n" s="293">
+        <v>0.024473998445906725</v>
+      </c>
+      <c r="H13" s="294"/>
+      <c r="I13" t="n" s="295">
+        <v>0.7632266425902297</v>
       </c>
     </row>
     <row r="14">
@@ -6002,174 +6029,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="299">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="313">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="313">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="313">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="313">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="313">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="313">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="313">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
-        <v>24</v>
-      </c>
-      <c r="B17" t="n" s="314">
-        <v>160.0</v>
-      </c>
-      <c r="C17" t="n" s="315">
-        <v>0.9353697607897892</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.9465630820661519</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.8423684654818817</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.7919633366611454</v>
-      </c>
-      <c r="G17" t="n" s="319">
-        <v>2.46875</v>
-      </c>
-      <c r="H17" t="n" s="320">
-        <v>1.461978821827354</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="309">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n" s="314">
         <v>160.0</v>
       </c>
       <c r="C18" t="n" s="315">
-        <v>0.9567191832142561</v>
+        <v>0.7843196884210243</v>
       </c>
       <c r="D18" t="n" s="316">
-        <v>0.9465630820661519</v>
+        <v>0.8841991414006716</v>
       </c>
       <c r="E18" t="n" s="317">
-        <v>0.8423684654818817</v>
+        <v>0.7899286245084536</v>
       </c>
       <c r="F18" t="n" s="318">
-        <v>0.7919633366611456</v>
+        <v>0.7349144619374051</v>
       </c>
       <c r="G18" t="n" s="319">
+        <v>0.83125</v>
+      </c>
+      <c r="H18" t="n" s="320">
+        <v>0.3757068809289477</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="309">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="314">
+        <v>160.0</v>
+      </c>
+      <c r="C19" t="n" s="315">
+        <v>0.9411597479703683</v>
+      </c>
+      <c r="D19" t="n" s="316">
+        <v>0.9398251120892818</v>
+      </c>
+      <c r="E19" t="n" s="317">
+        <v>0.9103609091941373</v>
+      </c>
+      <c r="F19" t="n" s="318">
+        <v>0.8311461372717209</v>
+      </c>
+      <c r="G19" t="n" s="319">
+        <v>2.46875</v>
+      </c>
+      <c r="H19" t="n" s="320">
+        <v>1.461978821827354</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="309">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="314">
+        <v>160.0</v>
+      </c>
+      <c r="C20" t="n" s="315">
+        <v>0.9469639910960784</v>
+      </c>
+      <c r="D20" t="n" s="316">
+        <v>0.894768792559912</v>
+      </c>
+      <c r="E20" t="n" s="317">
+        <v>0.8189256500454933</v>
+      </c>
+      <c r="F20" t="n" s="318">
+        <v>0.7921617261965966</v>
+      </c>
+      <c r="G20" t="n" s="319">
         <v>2.51875</v>
       </c>
-      <c r="H18" t="n" s="320">
+      <c r="H20" t="n" s="320">
         <v>1.7767607972987276</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s">
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
+    <row r="23">
+      <c r="A23" t="s" s="324">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="338">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="338">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="338">
+      <c r="C24" t="s" s="338">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="338">
+      <c r="D24" t="s" s="338">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="338">
+      <c r="E24" t="s" s="338">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="338">
+      <c r="F24" t="s" s="338">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="338">
+      <c r="G24" t="s" s="338">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
+      <c r="H24" t="s" s="338">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="334">
         <v>24</v>
       </c>
-      <c r="B23" t="n" s="339">
+      <c r="B25" t="n" s="339">
         <v>0.16875</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C25" t="n" s="340">
+        <v>0.83125</v>
+      </c>
+      <c r="D25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="345">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="334">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n" s="339">
+        <v>0.16875</v>
+      </c>
+      <c r="C26" t="n" s="340">
         <v>0.14375</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="341">
         <v>0.0125</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="342">
         <v>0.4125</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="343">
         <v>0.25</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="344">
         <v>0.0125</v>
       </c>
-      <c r="H23" t="n" s="345">
+      <c r="H26" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+    <row r="27">
+      <c r="A27" t="s" s="334">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="339">
         <v>0.16875</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="340">
         <v>0.18125</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="341">
         <v>0.15625</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="342">
         <v>0.1625</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="343">
         <v>0.11875</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="344">
         <v>0.2125</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="345">
         <v>0.0</v>
       </c>
     </row>
@@ -6200,7 +6284,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="347">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6249,31 +6333,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="376">
-        <v>0.9305305912836435</v>
+        <v>0.7494239158805324</v>
       </c>
       <c r="B6" t="n" s="377">
-        <v>0.9306344562638942</v>
+        <v>0.8885616034568544</v>
       </c>
       <c r="C6" t="n" s="378">
-        <v>0.8702678534156633</v>
+        <v>0.8461768487092218</v>
       </c>
       <c r="D6" t="n" s="379">
-        <v>0.8702678534156632</v>
+        <v>0.7266158033912039</v>
       </c>
       <c r="E6" t="n" s="380">
-        <v>13.416379460736287</v>
+        <v>7.973567738053647</v>
       </c>
       <c r="F6" t="n" s="381">
-        <v>0.010974638664071413</v>
+        <v>0.014987214941846478</v>
       </c>
       <c r="G6" t="n" s="382">
-        <v>2.13125</v>
+        <v>2.78125</v>
       </c>
       <c r="H6" t="n" s="383">
-        <v>1.2976605704015372</v>
+        <v>0.7652907852729965</v>
       </c>
       <c r="I6" t="n" s="384">
-        <v>0.8702678534156632</v>
+        <v>0.725592452786727</v>
       </c>
     </row>
     <row r="7">
@@ -6320,53 +6404,83 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="398">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n" s="403">
-        <v>0.8702678534156632</v>
+        <v>0.8662385384113465</v>
       </c>
       <c r="C11" t="n" s="404">
-        <v>0.8702678534156632</v>
+        <v>0.8749201786330072</v>
       </c>
       <c r="D11" t="n" s="405">
-        <v>0.7573661366887064</v>
+        <v>0.7776516492580616</v>
       </c>
       <c r="E11" t="n" s="406">
-        <v>0.8702678534156632</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.8702678534156632</v>
-      </c>
+        <v>0.7776516492580616</v>
+      </c>
+      <c r="F11" t="n" s="407">
+        <v>6.994894692613381</v>
+      </c>
+      <c r="G11" t="n" s="408">
+        <v>0.020248749218220164</v>
+      </c>
+      <c r="H11" s="409"/>
       <c r="I11" t="n" s="410">
-        <v>0.8702678534156632</v>
+        <v>0.7776516492580616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="398">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n" s="403">
-        <v>0.7573661366887064</v>
+        <v>0.3577215861548195</v>
       </c>
       <c r="C12" t="n" s="404">
-        <v>0.8702678534156632</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.7573661366887064</v>
-      </c>
+        <v>0.8071119803335562</v>
+      </c>
+      <c r="D12" t="n" s="405">
+        <v>0.6766033081288229</v>
+      </c>
+      <c r="E12" t="n" s="406">
+        <v>0.676603308128823</v>
+      </c>
+      <c r="F12" t="n" s="407">
+        <v>4.18435515968941</v>
+      </c>
+      <c r="G12" t="n" s="408">
+        <v>0.024665825149729956</v>
+      </c>
+      <c r="H12" s="409"/>
       <c r="I12" t="n" s="410">
-        <v>0.8702678534156632</v>
+        <v>0.676603308128823</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="398">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="403">
+        <v>0.4358464682661889</v>
+      </c>
+      <c r="C13" t="n" s="404">
+        <v>0.8409777773598155</v>
+      </c>
+      <c r="D13" t="n" s="405">
+        <v>0.7255924527867271</v>
+      </c>
+      <c r="E13" t="n" s="406">
+        <v>0.725592452786727</v>
+      </c>
+      <c r="F13" t="n" s="407">
+        <v>5.288429273578161</v>
+      </c>
+      <c r="G13" t="n" s="408">
+        <v>0.024544070004354372</v>
+      </c>
+      <c r="H13" s="409"/>
+      <c r="I13" t="n" s="410">
+        <v>0.725592452786727</v>
       </c>
     </row>
     <row r="14">
@@ -6375,165 +6489,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="414">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="428">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="428">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="428">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="428">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="428">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="428">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="428">
         <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
-        <v>160.0</v>
-      </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9677050006962781</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9670232296629857</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.9021180604844273</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.8702678534156632</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.20625</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.3556166644300678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="424">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n" s="429">
         <v>160.0</v>
       </c>
       <c r="C18" t="n" s="430">
-        <v>0.966334457867652</v>
+        <v>0.7797911069120549</v>
       </c>
       <c r="D18" t="n" s="431">
-        <v>0.9670232296629857</v>
+        <v>0.8854794633689975</v>
       </c>
       <c r="E18" t="n" s="432">
-        <v>0.9021180604844273</v>
+        <v>0.7856538662214149</v>
       </c>
       <c r="F18" t="n" s="433">
-        <v>0.8702678534156632</v>
+        <v>0.7408027012261094</v>
       </c>
       <c r="G18" t="n" s="434">
-        <v>2.05625</v>
+        <v>0.95625</v>
       </c>
       <c r="H18" t="n" s="435">
-        <v>1.3281986429823387</v>
+        <v>0.2051805463580151</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="424">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="429">
+        <v>160.0</v>
+      </c>
+      <c r="C19" t="n" s="430">
+        <v>0.9326984658745309</v>
+      </c>
+      <c r="D19" t="n" s="431">
+        <v>0.9227271483134349</v>
+      </c>
+      <c r="E19" t="n" s="432">
+        <v>0.8741032779233756</v>
+      </c>
+      <c r="F19" t="n" s="433">
+        <v>0.8025142687348052</v>
+      </c>
+      <c r="G19" t="n" s="434">
+        <v>3.475</v>
+      </c>
+      <c r="H19" t="n" s="435">
+        <v>1.027606365670871</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="424">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="429">
+        <v>160.0</v>
+      </c>
+      <c r="C20" t="n" s="430">
+        <v>0.9489628501915738</v>
+      </c>
+      <c r="D20" t="n" s="431">
+        <v>0.9046691356283847</v>
+      </c>
+      <c r="E20" t="n" s="432">
+        <v>0.8357595098855919</v>
+      </c>
+      <c r="F20" t="n" s="433">
+        <v>0.7915649724364122</v>
+      </c>
+      <c r="G20" t="n" s="434">
+        <v>3.9125</v>
+      </c>
+      <c r="H20" t="n" s="435">
+        <v>1.2407519529724833</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="439">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="453">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="453">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
+      <c r="D24" t="s" s="453">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="453">
+      <c r="E24" t="s" s="453">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="F24" t="s" s="453">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="453">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
-        <v>0.175</v>
-      </c>
-      <c r="C23" t="n" s="455">
-        <v>0.1125</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2375</v>
-      </c>
-      <c r="E23" t="n" s="457">
+      <c r="H24" t="s" s="453">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="449">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="454">
+        <v>0.04375</v>
+      </c>
+      <c r="C25" t="n" s="455">
+        <v>0.95625</v>
+      </c>
+      <c r="D25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="459">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="449">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="454">
+        <v>0.04375</v>
+      </c>
+      <c r="C26" t="n" s="455">
+        <v>0.01875</v>
+      </c>
+      <c r="D26" t="n" s="456">
+        <v>0.00625</v>
+      </c>
+      <c r="E26" t="n" s="457">
+        <v>0.35625</v>
+      </c>
+      <c r="F26" t="n" s="458">
+        <v>0.5</v>
+      </c>
+      <c r="G26" t="n" s="459">
+        <v>0.075</v>
+      </c>
+      <c r="H26" t="n" s="460">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="449">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="454">
+        <v>0.04375</v>
+      </c>
+      <c r="C27" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="456">
+        <v>0.03125</v>
+      </c>
+      <c r="E27" t="n" s="457">
         <v>0.28125</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.19375</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.19375</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.1125</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.29375</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.24375</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.15625</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="458">
+        <v>0.2125</v>
+      </c>
+      <c r="G27" t="n" s="459">
+        <v>0.43125</v>
+      </c>
+      <c r="H27" t="n" s="460">
         <v>0.0</v>
       </c>
     </row>
@@ -6563,8 +6743,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="462">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6578,66 +6758,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="476">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="490">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="490">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="490">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="490">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="490">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="490">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="490">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="490">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9797170544644245</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9805711087187778</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9618827925176737</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9618827925176736</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>50.469740888739814</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.003136036440919079</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.078125</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>1.6865607099366113</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9618827925176736</v>
+      <c r="A6" t="n" s="491">
+        <v>0.6572063164365372</v>
+      </c>
+      <c r="B6" t="n" s="492">
+        <v>0.6601883612589738</v>
+      </c>
+      <c r="C6" t="n" s="493">
+        <v>0.4927471460684798</v>
+      </c>
+      <c r="D6" t="n" s="494">
+        <v>0.4927471460684798</v>
+      </c>
+      <c r="E6" t="n" s="495">
+        <v>1.942806796450282</v>
+      </c>
+      <c r="F6" t="n" s="496">
+        <v>0.05372042003052391</v>
+      </c>
+      <c r="G6" t="n" s="497">
+        <v>1.909375</v>
+      </c>
+      <c r="H6" t="n" s="498">
+        <v>1.3017548327753916</v>
+      </c>
+      <c r="I6" t="n" s="499">
+        <v>0.4927471460684799</v>
       </c>
     </row>
     <row r="7">
@@ -6651,81 +6831,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="503">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="517">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="517">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="517">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="517">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="517">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="517">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="517">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="517">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9618827925176736</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9618827925176736</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9252185065415981</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9618827925176736</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9618827925176736</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9618827925176736</v>
+      <c r="A11" t="s" s="513">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="518">
+        <v>0.49274714606847986</v>
+      </c>
+      <c r="C11" t="n" s="519">
+        <v>0.49274714606847986</v>
+      </c>
+      <c r="D11" t="n" s="520">
+        <v>0.24279974995863174</v>
+      </c>
+      <c r="E11" t="n" s="521">
+        <v>0.49274714606847986</v>
+      </c>
+      <c r="F11" s="522"/>
+      <c r="G11" s="523"/>
+      <c r="H11" t="n" s="524">
+        <v>0.49274714606847986</v>
+      </c>
+      <c r="I11" t="n" s="525">
+        <v>0.49274714606847986</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9252185065415981</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9618827925176736</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9252185065415981</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9618827925176736</v>
+      <c r="A12" t="s" s="513">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="518">
+        <v>0.24279974995863174</v>
+      </c>
+      <c r="C12" t="n" s="519">
+        <v>0.49274714606847986</v>
+      </c>
+      <c r="D12" s="520"/>
+      <c r="E12" s="521"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="523"/>
+      <c r="H12" t="n" s="524">
+        <v>0.24279974995863174</v>
+      </c>
+      <c r="I12" t="n" s="525">
+        <v>0.49274714606847986</v>
       </c>
     </row>
     <row r="13">
@@ -6739,84 +6919,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="529">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="543">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="543">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="543">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="543">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="543">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="543">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="543">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="539">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="544">
         <v>160.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9898541726880855</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9904248564423435</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9713653532680873</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9618827925176735</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.05625</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>1.6530774616876314</v>
+      <c r="C17" t="n" s="545">
+        <v>0.8804799493006796</v>
+      </c>
+      <c r="D17" t="n" s="546">
+        <v>0.8639291481563984</v>
+      </c>
+      <c r="E17" t="n" s="547">
+        <v>0.6064432768310287</v>
+      </c>
+      <c r="F17" t="n" s="548">
+        <v>0.49274714606848</v>
+      </c>
+      <c r="G17" t="n" s="549">
+        <v>1.54375</v>
+      </c>
+      <c r="H17" t="n" s="550">
+        <v>1.5934096781793825</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="539">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="544">
         <v>160.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9909790994785621</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.9904248564423435</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9713653532680873</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9618827925176735</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.1</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>1.7526260620016887</v>
+      <c r="C18" t="n" s="545">
+        <v>0.8463883283725979</v>
+      </c>
+      <c r="D18" t="n" s="546">
+        <v>0.8639291481563983</v>
+      </c>
+      <c r="E18" t="n" s="547">
+        <v>0.6064432768310287</v>
+      </c>
+      <c r="F18" t="n" s="548">
+        <v>0.49274714606848</v>
+      </c>
+      <c r="G18" t="n" s="549">
+        <v>2.275</v>
+      </c>
+      <c r="H18" t="n" s="550">
+        <v>1.4184321222866434</v>
       </c>
     </row>
     <row r="19">
@@ -6830,83 +7010,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="554">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="568">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="568">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="D22" t="s" s="568">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="E22" t="s" s="568">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="567">
+      <c r="F22" t="s" s="568">
         <v>42</v>
       </c>
-      <c r="H22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="568">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.6875</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.01875</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.01875</v>
-      </c>
-      <c r="E23" t="n" s="571">
-        <v>0.11875</v>
-      </c>
-      <c r="F23" t="n" s="572">
-        <v>0.1375</v>
-      </c>
-      <c r="G23" t="n" s="573">
-        <v>0.01875</v>
-      </c>
-      <c r="H23" t="n" s="574">
+      <c r="A23" t="s" s="564">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="569">
+        <v>0.4375</v>
+      </c>
+      <c r="C23" t="n" s="570">
+        <v>0.13125</v>
+      </c>
+      <c r="D23" t="n" s="571">
+        <v>0.03125</v>
+      </c>
+      <c r="E23" t="n" s="572">
+        <v>0.25</v>
+      </c>
+      <c r="F23" t="n" s="573">
+        <v>0.15</v>
+      </c>
+      <c r="G23" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.6875</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.01875</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.03125</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.1</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.09375</v>
-      </c>
-      <c r="G24" t="n" s="573">
-        <v>0.06875</v>
-      </c>
-      <c r="H24" t="n" s="574">
+      <c r="A24" t="s" s="564">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="569">
+        <v>0.20625</v>
+      </c>
+      <c r="C24" t="n" s="570">
+        <v>0.1125</v>
+      </c>
+      <c r="D24" t="n" s="571">
+        <v>0.05</v>
+      </c>
+      <c r="E24" t="n" s="572">
+        <v>0.4625</v>
+      </c>
+      <c r="F24" t="n" s="573">
+        <v>0.16875</v>
+      </c>
+      <c r="G24" t="n" s="574">
         <v>0.0</v>
       </c>
     </row>
@@ -6937,7 +7108,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="576">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6986,31 +7157,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="605">
-        <v>0.6572063164365372</v>
+        <v>0.9305305912836435</v>
       </c>
       <c r="B6" t="n" s="606">
-        <v>0.6601883612589738</v>
+        <v>0.9306344562638942</v>
       </c>
       <c r="C6" t="n" s="607">
-        <v>0.4927471460684798</v>
+        <v>0.8702678534156633</v>
       </c>
       <c r="D6" t="n" s="608">
-        <v>0.4927471460684798</v>
+        <v>0.8702678534156632</v>
       </c>
       <c r="E6" t="n" s="609">
-        <v>1.942806796450282</v>
+        <v>13.416379460736287</v>
       </c>
       <c r="F6" t="n" s="610">
-        <v>0.05372042003052391</v>
+        <v>0.010974638664071413</v>
       </c>
       <c r="G6" t="n" s="611">
-        <v>1.909375</v>
+        <v>2.13125</v>
       </c>
       <c r="H6" t="n" s="612">
-        <v>1.3017548327753916</v>
+        <v>1.2976605704015372</v>
       </c>
       <c r="I6" t="n" s="613">
-        <v>0.4927471460684799</v>
+        <v>0.8702678534156632</v>
       </c>
     </row>
     <row r="7">
@@ -7057,48 +7228,48 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="627">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B11" t="n" s="632">
-        <v>0.49274714606847986</v>
+        <v>0.8702678534156632</v>
       </c>
       <c r="C11" t="n" s="633">
-        <v>0.49274714606847986</v>
+        <v>0.8702678534156632</v>
       </c>
       <c r="D11" t="n" s="634">
-        <v>0.24279974995863174</v>
+        <v>0.7573661366887064</v>
       </c>
       <c r="E11" t="n" s="635">
-        <v>0.49274714606847986</v>
+        <v>0.8702678534156632</v>
       </c>
       <c r="F11" s="636"/>
       <c r="G11" s="637"/>
       <c r="H11" t="n" s="638">
-        <v>0.49274714606847986</v>
+        <v>0.8702678534156632</v>
       </c>
       <c r="I11" t="n" s="639">
-        <v>0.49274714606847986</v>
+        <v>0.8702678534156632</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="627">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B12" t="n" s="632">
-        <v>0.24279974995863174</v>
+        <v>0.7573661366887064</v>
       </c>
       <c r="C12" t="n" s="633">
-        <v>0.49274714606847986</v>
+        <v>0.8702678534156632</v>
       </c>
       <c r="D12" s="634"/>
       <c r="E12" s="635"/>
       <c r="F12" s="636"/>
       <c r="G12" s="637"/>
       <c r="H12" t="n" s="638">
-        <v>0.24279974995863174</v>
+        <v>0.7573661366887064</v>
       </c>
       <c r="I12" t="n" s="639">
-        <v>0.49274714606847986</v>
+        <v>0.8702678534156632</v>
       </c>
     </row>
     <row r="13">
@@ -7113,25 +7284,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="643">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
       <c r="B16" t="s" s="657">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="657">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s" s="657">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" t="s" s="657">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s" s="657">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s" s="657">
         <v>9</v>
@@ -7142,54 +7313,54 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="653">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="n" s="658">
         <v>160.0</v>
       </c>
       <c r="C17" t="n" s="659">
-        <v>0.8804799493006796</v>
+        <v>0.9677050006962781</v>
       </c>
       <c r="D17" t="n" s="660">
-        <v>0.8639291481563984</v>
+        <v>0.9670232296629857</v>
       </c>
       <c r="E17" t="n" s="661">
-        <v>0.6064432768310287</v>
+        <v>0.9021180604844273</v>
       </c>
       <c r="F17" t="n" s="662">
-        <v>0.49274714606848</v>
+        <v>0.8702678534156632</v>
       </c>
       <c r="G17" t="n" s="663">
-        <v>1.54375</v>
+        <v>2.20625</v>
       </c>
       <c r="H17" t="n" s="664">
-        <v>1.5934096781793825</v>
+        <v>1.3556166644300678</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="653">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" t="n" s="658">
         <v>160.0</v>
       </c>
       <c r="C18" t="n" s="659">
-        <v>0.8463883283725979</v>
+        <v>0.966334457867652</v>
       </c>
       <c r="D18" t="n" s="660">
-        <v>0.8639291481563983</v>
+        <v>0.9670232296629857</v>
       </c>
       <c r="E18" t="n" s="661">
-        <v>0.6064432768310287</v>
+        <v>0.9021180604844273</v>
       </c>
       <c r="F18" t="n" s="662">
-        <v>0.49274714606848</v>
+        <v>0.8702678534156632</v>
       </c>
       <c r="G18" t="n" s="663">
-        <v>2.275</v>
+        <v>2.05625</v>
       </c>
       <c r="H18" t="n" s="664">
-        <v>1.4184321222866434</v>
+        <v>1.3281986429823387</v>
       </c>
     </row>
     <row r="19">
@@ -7204,48 +7375,48 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="668">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
       <c r="B22" t="s" s="682">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s" s="682">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s" s="682">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s" s="682">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="682">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G22" t="s" s="682">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="678">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n" s="683">
-        <v>0.4375</v>
+        <v>0.175</v>
       </c>
       <c r="C23" t="n" s="684">
-        <v>0.13125</v>
+        <v>0.1125</v>
       </c>
       <c r="D23" t="n" s="685">
-        <v>0.03125</v>
+        <v>0.2375</v>
       </c>
       <c r="E23" t="n" s="686">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="F23" t="n" s="687">
-        <v>0.15</v>
+        <v>0.19375</v>
       </c>
       <c r="G23" t="n" s="688">
         <v>0.0</v>
@@ -7253,22 +7424,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="678">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n" s="683">
-        <v>0.20625</v>
+        <v>0.19375</v>
       </c>
       <c r="C24" t="n" s="684">
         <v>0.1125</v>
       </c>
       <c r="D24" t="n" s="685">
-        <v>0.05</v>
+        <v>0.29375</v>
       </c>
       <c r="E24" t="n" s="686">
-        <v>0.4625</v>
+        <v>0.24375</v>
       </c>
       <c r="F24" t="n" s="687">
-        <v>0.16875</v>
+        <v>0.15625</v>
       </c>
       <c r="G24" t="n" s="688">
         <v>0.0</v>
@@ -7301,7 +7472,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="690">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7350,31 +7521,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="719">
-        <v>0.8132543485977991</v>
+        <v>0.7942596940343839</v>
       </c>
       <c r="B6" t="n" s="720">
-        <v>0.8238531981193864</v>
+        <v>0.8238219031427431</v>
       </c>
       <c r="C6" t="n" s="721">
-        <v>0.9152449666691178</v>
+        <v>0.920013443914059</v>
       </c>
       <c r="D6" t="n" s="722">
-        <v>0.3186657010841835</v>
+        <v>0.31861888465347044</v>
       </c>
       <c r="E6" t="n" s="723">
-        <v>4.6770829179048405</v>
+        <v>4.676074482801458</v>
       </c>
       <c r="F6" t="n" s="724">
-        <v>0.02266444576789633</v>
+        <v>0.023105348886453853</v>
       </c>
       <c r="G6" t="n" s="725">
-        <v>2.49</v>
+        <v>1.889375</v>
       </c>
       <c r="H6" t="n" s="726">
-        <v>0.8511331699305197</v>
+        <v>0.7677949211088226</v>
       </c>
       <c r="I6" t="n" s="727">
-        <v>0.25335132870721766</v>
+        <v>0.2353234081824467</v>
       </c>
     </row>
     <row r="7">
@@ -7421,28 +7592,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="741">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="746">
-        <v>0.7954325982482368</v>
+        <v>0.7809994125874329</v>
       </c>
       <c r="C11" t="n" s="747">
-        <v>0.8014685435495709</v>
+        <v>0.8014269652046524</v>
       </c>
       <c r="D11" t="n" s="748">
-        <v>0.8927569987361369</v>
+        <v>0.9024660515711459</v>
       </c>
       <c r="E11" t="n" s="749">
-        <v>0.30965634390808083</v>
+        <v>0.30960049162916814</v>
       </c>
       <c r="F11" t="n" s="750">
-        <v>4.036985160332453</v>
+        <v>4.0359304878963815</v>
       </c>
       <c r="G11" t="n" s="751">
-        <v>0.024874325034190355</v>
+        <v>0.02530694705743444</v>
       </c>
       <c r="H11" t="n" s="752">
-        <v>0.03967301895155633</v>
+        <v>0.05020068807704302</v>
       </c>
       <c r="I11" t="n" s="753">
         <v>0.25244369581579024</v>
@@ -7450,263 +7621,263 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="741">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="746">
-        <v>0.7971653268894191</v>
+        <v>0.7581132467191888</v>
       </c>
       <c r="C12" t="n" s="747">
-        <v>0.8046038482938329</v>
+        <v>0.7974558375320212</v>
       </c>
       <c r="D12" t="n" s="748">
-        <v>0.8938331423636945</v>
+        <v>0.8976616123830559</v>
       </c>
       <c r="E12" t="n" s="749">
-        <v>0.31390976608534965</v>
+        <v>0.3043314188243173</v>
       </c>
       <c r="F12" t="n" s="750">
-        <v>4.117808059514807</v>
+        <v>3.937194870566045</v>
       </c>
       <c r="G12" t="n" s="751">
-        <v>0.024525816226814507</v>
+        <v>0.027073562545056246</v>
       </c>
       <c r="H12" t="n" s="752">
-        <v>0.03883727112137659</v>
+        <v>0.04989524504888305</v>
       </c>
       <c r="I12" t="n" s="753">
-        <v>0.25244369581579024</v>
+        <v>0.23328711091873175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="741">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="746">
-        <v>0.7990021413593923</v>
+        <v>0.7597335280364065</v>
       </c>
       <c r="C13" t="n" s="747">
-        <v>0.8062347446388196</v>
+        <v>0.7973343211056517</v>
       </c>
       <c r="D13" t="n" s="748">
-        <v>0.895642643878923</v>
+        <v>0.9001370969613568</v>
       </c>
       <c r="E13" t="n" s="749">
-        <v>0.31615535691198005</v>
+        <v>0.30417219915895666</v>
       </c>
       <c r="F13" t="n" s="750">
-        <v>4.160883968263505</v>
+        <v>3.93423457516608</v>
       </c>
       <c r="G13" t="n" s="751">
-        <v>0.024495587165606642</v>
+        <v>0.026924442401463963</v>
       </c>
       <c r="H13" t="n" s="752">
-        <v>0.0395007289826399</v>
+        <v>0.05080354856822729</v>
       </c>
       <c r="I13" t="n" s="753">
-        <v>0.2548524420928465</v>
+        <v>0.23328711091873175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="741">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" t="n" s="746">
-        <v>0.7954382579933847</v>
+        <v>0.7985900836563967</v>
       </c>
       <c r="C14" t="n" s="747">
-        <v>0.8030081908245063</v>
+        <v>0.8196965755694996</v>
       </c>
       <c r="D14" t="n" s="748">
-        <v>0.8937990946586762</v>
+        <v>0.9161550990849189</v>
       </c>
       <c r="E14" t="n" s="749">
-        <v>0.31173471185521917</v>
+        <v>0.3356073458308425</v>
       </c>
       <c r="F14" t="n" s="750">
-        <v>4.076353195523635</v>
+        <v>4.546206363847842</v>
       </c>
       <c r="G14" t="n" s="751">
-        <v>0.024690307546078864</v>
+        <v>0.02369239405281117</v>
       </c>
       <c r="H14" t="n" s="752">
-        <v>0.03950520022888566</v>
+        <v>0.059465059506229524</v>
       </c>
       <c r="I14" t="n" s="753">
-        <v>0.2548524420928465</v>
+        <v>0.25244369581579024</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="741">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B15" t="n" s="746">
-        <v>0.7924769655826849</v>
+        <v>0.7789155641656004</v>
       </c>
       <c r="C15" t="n" s="747">
-        <v>0.8047886025759253</v>
+        <v>0.803967211041597</v>
       </c>
       <c r="D15" t="n" s="748">
-        <v>0.8857916546750358</v>
+        <v>0.9037954709417184</v>
       </c>
       <c r="E15" t="n" s="749">
-        <v>0.31416300647400774</v>
+        <v>0.3130393680541495</v>
       </c>
       <c r="F15" t="n" s="750">
-        <v>4.122651716014372</v>
+        <v>4.101187435598817</v>
       </c>
       <c r="G15" t="n" s="751">
-        <v>0.025217757527002897</v>
+        <v>0.02453564942710273</v>
       </c>
       <c r="H15" t="n" s="752">
-        <v>0.03993909774292978</v>
+        <v>0.06285096553339722</v>
       </c>
       <c r="I15" t="n" s="753">
-        <v>0.25244369581579024</v>
+        <v>0.23961249477808855</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="741">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B16" t="n" s="746">
-        <v>0.7909828696833388</v>
+        <v>0.7846036303992784</v>
       </c>
       <c r="C16" t="n" s="747">
-        <v>0.8040561275493321</v>
+        <v>0.8094105461548398</v>
       </c>
       <c r="D16" t="n" s="748">
-        <v>0.886437477728613</v>
+        <v>0.9091527216407828</v>
       </c>
       <c r="E16" t="n" s="749">
-        <v>0.3131607255069668</v>
+        <v>0.3205947379946218</v>
       </c>
       <c r="F16" t="n" s="750">
-        <v>4.103502281000225</v>
+        <v>4.2468800336267565</v>
       </c>
       <c r="G16" t="n" s="751">
-        <v>0.02544820239360193</v>
+        <v>0.023668252513592485</v>
       </c>
       <c r="H16" t="n" s="752">
-        <v>0.04048365345548539</v>
+        <v>0.06242248450093275</v>
       </c>
       <c r="I16" t="n" s="753">
-        <v>0.23961249477808855</v>
+        <v>0.2375761975143736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="741">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B17" t="n" s="746">
-        <v>0.7956518366038087</v>
+        <v>0.7903455344502124</v>
       </c>
       <c r="C17" t="n" s="747">
-        <v>0.8132638574055779</v>
+        <v>0.8243232870584931</v>
       </c>
       <c r="D17" t="n" s="748">
-        <v>0.8765842201827082</v>
+        <v>0.9260643642998136</v>
       </c>
       <c r="E17" t="n" s="749">
-        <v>0.3261026499194137</v>
+        <v>0.3426950157671736</v>
       </c>
       <c r="F17" t="n" s="750">
-        <v>4.355149710744163</v>
+        <v>4.692274082638139</v>
       </c>
       <c r="G17" t="n" s="751">
-        <v>0.02479113203207069</v>
+        <v>0.023580373143006043</v>
       </c>
       <c r="H17" t="n" s="752">
-        <v>0.034787960952657675</v>
+        <v>0.06922757129046006</v>
       </c>
       <c r="I17" t="n" s="753">
-        <v>0.26763878407709873</v>
+        <v>0.23328711091873175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="741">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B18" t="n" s="746">
-        <v>0.7967108143607706</v>
+        <v>0.7711859451214164</v>
       </c>
       <c r="C18" t="n" s="747">
-        <v>0.8123088415541344</v>
+        <v>0.8119272625515827</v>
       </c>
       <c r="D18" t="n" s="748">
-        <v>0.876905276869135</v>
+        <v>0.9197032665779326</v>
       </c>
       <c r="E18" t="n" s="749">
-        <v>0.3247249001184842</v>
+        <v>0.3241767668629076</v>
       </c>
       <c r="F18" t="n" s="750">
-        <v>4.327901475382619</v>
+        <v>4.317091746347714</v>
       </c>
       <c r="G18" t="n" s="751">
-        <v>0.02466262311458304</v>
+        <v>0.025721634394818723</v>
       </c>
       <c r="H18" t="n" s="752">
-        <v>0.03534390412086302</v>
+        <v>0.07293283789231195</v>
       </c>
       <c r="I18" t="n" s="753">
-        <v>0.26763878407709873</v>
+        <v>0.2236780107187828</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="741">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B19" t="n" s="746">
-        <v>0.8110081687378263</v>
+        <v>0.7674323715434808</v>
       </c>
       <c r="C19" t="n" s="747">
-        <v>0.8222321243210069</v>
+        <v>0.8066049254628288</v>
       </c>
       <c r="D19" t="n" s="748">
-        <v>0.920055491160832</v>
+        <v>0.8923799857454158</v>
       </c>
       <c r="E19" t="n" s="749">
-        <v>0.3394647312223321</v>
+        <v>0.31666826451199603</v>
       </c>
       <c r="F19" t="n" s="750">
-        <v>4.625313326046402</v>
+        <v>4.170762504645881</v>
       </c>
       <c r="G19" t="n" s="751">
-        <v>0.023358015213836715</v>
+        <v>0.025668139789844793</v>
       </c>
       <c r="H19" t="n" s="752">
-        <v>0.045087966516564555</v>
+        <v>0.0653751401497699</v>
       </c>
       <c r="I19" t="n" s="753">
-        <v>0.26325379279969063</v>
+        <v>0.23328711091873175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="741">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B20" t="n" s="746">
-        <v>0.79294654758731</v>
+        <v>0.7651658973699075</v>
       </c>
       <c r="C20" t="n" s="747">
-        <v>0.807264293726628</v>
+        <v>0.8056178381278319</v>
       </c>
       <c r="D20" t="n" s="748">
-        <v>0.9126274100003835</v>
+        <v>0.892979938860448</v>
       </c>
       <c r="E20" t="n" s="749">
-        <v>0.31758481884000056</v>
+        <v>0.31530323790057146</v>
       </c>
       <c r="F20" t="n" s="750">
-        <v>4.1884522039814565</v>
+        <v>4.144504981159909</v>
       </c>
       <c r="G20" t="n" s="751">
-        <v>0.025423342832797662</v>
+        <v>0.026064261320794962</v>
       </c>
       <c r="H20" t="n" s="752">
-        <v>0.04837684022565385</v>
+        <v>0.06594902369259383</v>
       </c>
       <c r="I20" t="n" s="753">
-        <v>0.2396070888679196</v>
+        <v>0.22525935891984827</v>
       </c>
     </row>
     <row r="21">
@@ -7721,25 +7892,25 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="757">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
       <c r="B24" t="s" s="771">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s" s="771">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s" s="771">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" t="s" s="771">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s" s="771">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s" s="771">
         <v>9</v>
@@ -7750,262 +7921,262 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="767">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C25" t="n" s="773">
-        <v>0.6181231094516614</v>
+        <v>0.6858564033134477</v>
       </c>
       <c r="D25" t="n" s="774">
-        <v>0.6740816832742762</v>
+        <v>0.674102954955835</v>
       </c>
       <c r="E25" t="n" s="775">
-        <v>0.6510463065101867</v>
+        <v>0.6882113931784678</v>
       </c>
       <c r="F25" t="n" s="776">
-        <v>0.5346973353714575</v>
+        <v>0.6517059913679724</v>
       </c>
       <c r="G25" t="n" s="777">
-        <v>3.475</v>
+        <v>0.3125</v>
       </c>
       <c r="H25" t="n" s="778">
-        <v>1.027606365670871</v>
+        <v>0.4649677070006681</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="767">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C26" t="n" s="773">
-        <v>0.5976969572166274</v>
+        <v>0.7293892159419649</v>
       </c>
       <c r="D26" t="n" s="774">
-        <v>0.6494611051194162</v>
+        <v>0.7046042030586083</v>
       </c>
       <c r="E26" t="n" s="775">
-        <v>0.6249962388115698</v>
+        <v>0.7262478000044069</v>
       </c>
       <c r="F26" t="n" s="776">
-        <v>0.49104666019911053</v>
+        <v>0.6007573896655382</v>
       </c>
       <c r="G26" t="n" s="777">
-        <v>3.9125</v>
+        <v>1.05625</v>
       </c>
       <c r="H26" t="n" s="778">
-        <v>1.2407519529724833</v>
+        <v>1.6530774616876314</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C27" t="n" s="773">
-        <v>0.5804130124770082</v>
+        <v>0.7322412970779855</v>
       </c>
       <c r="D27" t="n" s="774">
-        <v>0.636462690631816</v>
+        <v>0.7055258829624302</v>
       </c>
       <c r="E27" t="n" s="775">
-        <v>0.6071236316494967</v>
+        <v>0.7241742295422327</v>
       </c>
       <c r="F27" t="n" s="776">
-        <v>0.49450114879045104</v>
+        <v>0.594843243392455</v>
       </c>
       <c r="G27" t="n" s="777">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H27" t="n" s="778">
-        <v>0.9968503858773891</v>
+        <v>1.7526260620016887</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="767">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C28" t="n" s="773">
-        <v>0.6188777194029873</v>
+        <v>0.3802900295349484</v>
       </c>
       <c r="D28" t="n" s="774">
-        <v>0.6620512244238612</v>
+        <v>0.523556256939507</v>
       </c>
       <c r="E28" t="n" s="775">
-        <v>0.6364433689800512</v>
+        <v>0.47550873212780087</v>
       </c>
       <c r="F28" t="n" s="776">
-        <v>0.5037537614632055</v>
+        <v>0.3570854349235648</v>
       </c>
       <c r="G28" t="n" s="777">
-        <v>3.775</v>
+        <v>0.95625</v>
       </c>
       <c r="H28" t="n" s="778">
-        <v>1.3687895768380096</v>
+        <v>0.2051805463580151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="767">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C29" t="n" s="773">
-        <v>0.6411897303289442</v>
+        <v>0.5572558369373761</v>
       </c>
       <c r="D29" t="n" s="774">
-        <v>0.6479952443322496</v>
+        <v>0.6541962224209247</v>
       </c>
       <c r="E29" t="n" s="775">
-        <v>0.6389965837286059</v>
+        <v>0.6321607099086863</v>
       </c>
       <c r="F29" t="n" s="776">
-        <v>0.5318259056130271</v>
+        <v>0.4542778493907759</v>
       </c>
       <c r="G29" t="n" s="777">
-        <v>2.20625</v>
+        <v>3.475</v>
       </c>
       <c r="H29" t="n" s="778">
-        <v>1.3556166644300678</v>
+        <v>1.027606365670871</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="767">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C30" t="n" s="773">
-        <v>0.651977910565448</v>
+        <v>0.5258541055783772</v>
       </c>
       <c r="D30" t="n" s="774">
-        <v>0.653796863793877</v>
+        <v>0.6104602139052665</v>
       </c>
       <c r="E30" t="n" s="775">
-        <v>0.6443362130901409</v>
+        <v>0.5788735857482805</v>
       </c>
       <c r="F30" t="n" s="776">
-        <v>0.547370213794611</v>
+        <v>0.3936660608972215</v>
       </c>
       <c r="G30" t="n" s="777">
-        <v>2.05625</v>
+        <v>3.9125</v>
       </c>
       <c r="H30" t="n" s="778">
-        <v>1.3281986429823387</v>
+        <v>1.2407519529724833</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="767">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B31" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C31" t="n" s="773">
-        <v>0.6458771884805853</v>
+        <v>0.5522465680696252</v>
       </c>
       <c r="D31" t="n" s="774">
-        <v>0.5788836178965366</v>
+        <v>0.48252763820423783</v>
       </c>
       <c r="E31" t="n" s="775">
-        <v>0.593207466238067</v>
+        <v>0.3808269094131838</v>
       </c>
       <c r="F31" t="n" s="776">
-        <v>0.5091737675726065</v>
+        <v>0.38211001911746306</v>
       </c>
       <c r="G31" t="n" s="777">
-        <v>1.05625</v>
+        <v>1.54375</v>
       </c>
       <c r="H31" t="n" s="778">
-        <v>1.6530774616876314</v>
+        <v>1.5934096781793825</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="767">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B32" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C32" t="n" s="773">
-        <v>0.6533346651825724</v>
+        <v>0.6385230403106119</v>
       </c>
       <c r="D32" t="n" s="774">
-        <v>0.5868586072669563</v>
+        <v>0.5897248103021315</v>
       </c>
       <c r="E32" t="n" s="775">
-        <v>0.6013737016614861</v>
+        <v>0.507491606146905</v>
       </c>
       <c r="F32" t="n" s="776">
-        <v>0.5087788629260356</v>
+        <v>0.5079134020708937</v>
       </c>
       <c r="G32" t="n" s="777">
-        <v>1.1</v>
+        <v>2.275</v>
       </c>
       <c r="H32" t="n" s="778">
-        <v>1.7526260620016887</v>
+        <v>1.4184321222866434</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="767">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B33" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C33" t="n" s="773">
-        <v>0.5345572230483671</v>
+        <v>0.657131829073213</v>
       </c>
       <c r="D33" t="n" s="774">
-        <v>0.5015383290163855</v>
+        <v>0.6331895149223774</v>
       </c>
       <c r="E33" t="n" s="775">
-        <v>0.40195648828192054</v>
+        <v>0.6220651605851376</v>
       </c>
       <c r="F33" t="n" s="776">
-        <v>0.38014259570006165</v>
+        <v>0.5375892390389454</v>
       </c>
       <c r="G33" t="n" s="777">
-        <v>1.54375</v>
+        <v>2.20625</v>
       </c>
       <c r="H33" t="n" s="778">
-        <v>1.5934096781793825</v>
+        <v>1.3556166644300678</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="767">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B34" t="n" s="772">
         <v>160.0</v>
       </c>
       <c r="C34" t="n" s="773">
-        <v>0.640978000922648</v>
+        <v>0.6703578086266805</v>
       </c>
       <c r="D34" t="n" s="774">
-        <v>0.6281883699433335</v>
+        <v>0.6410912875651121</v>
       </c>
       <c r="E34" t="n" s="775">
-        <v>0.5504440151646043</v>
+        <v>0.6295185486088889</v>
       </c>
       <c r="F34" t="n" s="776">
-        <v>0.5256894891902216</v>
+        <v>0.5567731921438754</v>
       </c>
       <c r="G34" t="n" s="777">
-        <v>2.275</v>
+        <v>2.05625</v>
       </c>
       <c r="H34" t="n" s="778">
-        <v>1.4184321222866434</v>
+        <v>1.3281986429823387</v>
       </c>
     </row>
     <row r="35">
@@ -8020,54 +8191,54 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="782">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s" s="796">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s" s="796">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s" s="796">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E38" t="s" s="796">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s" s="796">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="796">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H38" t="s" s="796">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="792">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B39" t="n" s="797">
-        <v>0.04375</v>
+        <v>0.6875</v>
       </c>
       <c r="C39" t="n" s="798">
-        <v>0.01875</v>
+        <v>0.3125</v>
       </c>
       <c r="D39" t="n" s="799">
-        <v>0.00625</v>
+        <v>0.0</v>
       </c>
       <c r="E39" t="n" s="800">
-        <v>0.35625</v>
+        <v>0.0</v>
       </c>
       <c r="F39" t="n" s="801">
-        <v>0.5</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="n" s="802">
-        <v>0.075</v>
+        <v>0.0</v>
       </c>
       <c r="H39" t="n" s="803">
         <v>0.0</v>
@@ -8075,25 +8246,25 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="792">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B40" t="n" s="797">
-        <v>0.04375</v>
+        <v>0.6875</v>
       </c>
       <c r="C40" t="n" s="798">
-        <v>0.0</v>
+        <v>0.01875</v>
       </c>
       <c r="D40" t="n" s="799">
-        <v>0.03125</v>
+        <v>0.01875</v>
       </c>
       <c r="E40" t="n" s="800">
-        <v>0.28125</v>
+        <v>0.11875</v>
       </c>
       <c r="F40" t="n" s="801">
-        <v>0.2125</v>
+        <v>0.1375</v>
       </c>
       <c r="G40" t="n" s="802">
-        <v>0.43125</v>
+        <v>0.01875</v>
       </c>
       <c r="H40" t="n" s="803">
         <v>0.0</v>
@@ -8101,25 +8272,25 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="792">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B41" t="n" s="797">
-        <v>0.025</v>
+        <v>0.6875</v>
       </c>
       <c r="C41" t="n" s="798">
-        <v>0.0375</v>
+        <v>0.01875</v>
       </c>
       <c r="D41" t="n" s="799">
-        <v>0.025</v>
+        <v>0.03125</v>
       </c>
       <c r="E41" t="n" s="800">
-        <v>0.31875</v>
+        <v>0.1</v>
       </c>
       <c r="F41" t="n" s="801">
-        <v>0.5125</v>
+        <v>0.09375</v>
       </c>
       <c r="G41" t="n" s="802">
-        <v>0.08125</v>
+        <v>0.06875</v>
       </c>
       <c r="H41" t="n" s="803">
         <v>0.0</v>
@@ -8127,25 +8298,25 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="792">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B42" t="n" s="797">
-        <v>0.025</v>
+        <v>0.04375</v>
       </c>
       <c r="C42" t="n" s="798">
-        <v>0.05625</v>
+        <v>0.95625</v>
       </c>
       <c r="D42" t="n" s="799">
-        <v>0.05</v>
+        <v>0.0</v>
       </c>
       <c r="E42" t="n" s="800">
-        <v>0.33125</v>
+        <v>0.0</v>
       </c>
       <c r="F42" t="n" s="801">
-        <v>0.0625</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="n" s="802">
-        <v>0.475</v>
+        <v>0.0</v>
       </c>
       <c r="H42" t="n" s="803">
         <v>0.0</v>
@@ -8153,25 +8324,25 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="792">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B43" t="n" s="797">
-        <v>0.175</v>
+        <v>0.04375</v>
       </c>
       <c r="C43" t="n" s="798">
-        <v>0.1125</v>
+        <v>0.01875</v>
       </c>
       <c r="D43" t="n" s="799">
-        <v>0.2375</v>
+        <v>0.00625</v>
       </c>
       <c r="E43" t="n" s="800">
-        <v>0.28125</v>
+        <v>0.35625</v>
       </c>
       <c r="F43" t="n" s="801">
-        <v>0.19375</v>
+        <v>0.5</v>
       </c>
       <c r="G43" t="n" s="802">
-        <v>0.0</v>
+        <v>0.075</v>
       </c>
       <c r="H43" t="n" s="803">
         <v>0.0</v>
@@ -8179,25 +8350,25 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="792">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B44" t="n" s="797">
-        <v>0.19375</v>
+        <v>0.04375</v>
       </c>
       <c r="C44" t="n" s="798">
-        <v>0.1125</v>
+        <v>0.0</v>
       </c>
       <c r="D44" t="n" s="799">
-        <v>0.29375</v>
+        <v>0.03125</v>
       </c>
       <c r="E44" t="n" s="800">
-        <v>0.24375</v>
+        <v>0.28125</v>
       </c>
       <c r="F44" t="n" s="801">
-        <v>0.15625</v>
+        <v>0.2125</v>
       </c>
       <c r="G44" t="n" s="802">
-        <v>0.0</v>
+        <v>0.43125</v>
       </c>
       <c r="H44" t="n" s="803">
         <v>0.0</v>
@@ -8205,25 +8376,25 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="792">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B45" t="n" s="797">
-        <v>0.6875</v>
+        <v>0.4375</v>
       </c>
       <c r="C45" t="n" s="798">
-        <v>0.01875</v>
+        <v>0.13125</v>
       </c>
       <c r="D45" t="n" s="799">
-        <v>0.01875</v>
+        <v>0.03125</v>
       </c>
       <c r="E45" t="n" s="800">
-        <v>0.11875</v>
+        <v>0.25</v>
       </c>
       <c r="F45" t="n" s="801">
-        <v>0.1375</v>
+        <v>0.15</v>
       </c>
       <c r="G45" t="n" s="802">
-        <v>0.01875</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="803">
         <v>0.0</v>
@@ -8231,25 +8402,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="792">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B46" t="n" s="797">
-        <v>0.6875</v>
+        <v>0.20625</v>
       </c>
       <c r="C46" t="n" s="798">
-        <v>0.01875</v>
+        <v>0.1125</v>
       </c>
       <c r="D46" t="n" s="799">
-        <v>0.03125</v>
+        <v>0.05</v>
       </c>
       <c r="E46" t="n" s="800">
-        <v>0.1</v>
+        <v>0.4625</v>
       </c>
       <c r="F46" t="n" s="801">
-        <v>0.09375</v>
+        <v>0.16875</v>
       </c>
       <c r="G46" t="n" s="802">
-        <v>0.06875</v>
+        <v>0.0</v>
       </c>
       <c r="H46" t="n" s="803">
         <v>0.0</v>
@@ -8257,22 +8428,22 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="792">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B47" t="n" s="797">
-        <v>0.4375</v>
+        <v>0.175</v>
       </c>
       <c r="C47" t="n" s="798">
-        <v>0.13125</v>
+        <v>0.1125</v>
       </c>
       <c r="D47" t="n" s="799">
-        <v>0.03125</v>
+        <v>0.2375</v>
       </c>
       <c r="E47" t="n" s="800">
-        <v>0.25</v>
+        <v>0.28125</v>
       </c>
       <c r="F47" t="n" s="801">
-        <v>0.15</v>
+        <v>0.19375</v>
       </c>
       <c r="G47" t="n" s="802">
         <v>0.0</v>
@@ -8283,22 +8454,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="792">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B48" t="n" s="797">
-        <v>0.20625</v>
+        <v>0.19375</v>
       </c>
       <c r="C48" t="n" s="798">
         <v>0.1125</v>
       </c>
       <c r="D48" t="n" s="799">
-        <v>0.05</v>
+        <v>0.29375</v>
       </c>
       <c r="E48" t="n" s="800">
-        <v>0.4625</v>
+        <v>0.24375</v>
       </c>
       <c r="F48" t="n" s="801">
-        <v>0.16875</v>
+        <v>0.15625</v>
       </c>
       <c r="G48" t="n" s="802">
         <v>0.0</v>
